--- a/data/536/IDSE/JKSE Composite Index - Weekly.xlsx
+++ b/data/536/IDSE/JKSE Composite Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BTW2"/>
+  <dimension ref="A1:BTX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9829,15 +9829,20 @@
       </c>
       <c r="BTU1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="BTV1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="BTV1" s="1" t="inlineStr">
+      <c r="BTW1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="BTW1" s="1" t="inlineStr">
+      <c r="BTX1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -15506,19 +15511,22 @@
         <v>7002.53</v>
       </c>
       <c r="BTT2" t="n">
-        <v>7057.08</v>
-      </c>
-      <c r="BTU2" t="inlineStr">
+        <v>7078.76</v>
+      </c>
+      <c r="BTU2" t="n">
+        <v>7140.39</v>
+      </c>
+      <c r="BTV2" t="inlineStr">
         <is>
           <t>JKSE</t>
         </is>
       </c>
-      <c r="BTV2" t="inlineStr">
+      <c r="BTW2" t="inlineStr">
         <is>
           <t>Jakarta Stock Exchange Composite Index, Close Price</t>
         </is>
       </c>
-      <c r="BTW2" t="inlineStr">
+      <c r="BTX2" t="inlineStr">
         <is>
           <t>Index: 1982=100</t>
         </is>
